--- a/meal_analysis.xlsx
+++ b/meal_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,24 +454,39 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Meal 1</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Meal 2</t>
+          <t>23:30-00:30</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meal 3</t>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,23 +496,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28/01/21</t>
+          <t>15/10/20</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.64</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -507,28 +531,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13/01/22</t>
+          <t>12/02/20</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.96</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GHSR-Meal-Fed</t>
+          <t>WT-Meal-Fed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,173 +570,791 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="E4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.63</v>
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.19000002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GHSR-Meal-Fed</t>
+          <t>WT-Meal-Fed</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28/01/21</t>
+          <t>13/01/22</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E5" t="n">
-        <v>1.03</v>
+        <v>0.46</v>
       </c>
       <c r="F5" t="n">
-        <v>0.43</v>
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.45999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14/04/22</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07/07/22</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>06/08/20</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>06/08/20</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12/02/20</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>28/01/21</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.48999998</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>28/01/21</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.41000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>13/01/22</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D17" t="n">
         <v>0.08</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="E17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.08000003</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3200001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14/04/22</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Meal 1</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Meal 2</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Meal 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>0.04</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>WT-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Meal 1</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Meal 2</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Meal 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>WT-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.16</v>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +1368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,24 +1394,39 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Meal 1</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Meal 2</t>
+          <t>23:30-00:30</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meal 3</t>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -770,23 +1436,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28/01/21</t>
+          <t>15/10/20</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.62</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -796,28 +1471,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13/01/22</t>
+          <t>12/02/20</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12.64</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GHSR-Meal-Fed</t>
+          <t>WT-Meal-Fed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -826,173 +1510,791 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.86000007</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.2400002</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.44999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GHSR-Meal-Fed</t>
+          <t>WT-Meal-Fed</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28/01/21</t>
+          <t>13/01/22</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="E5" t="n">
-        <v>1.81</v>
+        <v>2.65</v>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>1.44</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8600000299999998</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.64999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.43999971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14/04/22</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07/07/22</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>06/08/20</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>06/08/20</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12/02/20</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>28/01/21</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.10000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.11999994</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.21999998</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>28/01/21</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.13000008</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.22000024</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.64000036</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>13/01/22</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D17" t="n">
         <v>1.8</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="E17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.80000009</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.5600003</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.2799992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14/04/22</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Meal 1</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Meal 2</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Meal 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>WT-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Meal 1</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Meal 2</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Meal 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>WT-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.51</v>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +2308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,24 +2334,39 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Meal 1</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Meal 2</t>
+          <t>23:30-00:30</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meal 3</t>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1059,23 +2376,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28/01/21</t>
+          <t>15/10/20</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1085,28 +2411,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13/01/22</t>
+          <t>12/02/20</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.19</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GHSR-Meal-Fed</t>
+          <t>WT-Meal-Fed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1115,173 +2450,791 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.67</v>
+        <v>1.07</v>
       </c>
       <c r="F4" t="n">
-        <v>1.27</v>
+        <v>0.98</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.210000229999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.06999984</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9799999100000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GHSR-Meal-Fed</t>
+          <t>WT-Meal-Fed</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28/01/21</t>
+          <t>13/01/22</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.47</v>
+        <v>2.95</v>
       </c>
       <c r="E5" t="n">
-        <v>1.36</v>
+        <v>1.86</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.94</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9500001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.86000041</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.94000005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14/04/22</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07/07/22</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>06/08/20</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>06/08/20</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12/02/20</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>28/01/21</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.31000004</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6300003600000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.05000015</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>28/01/21</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.46999994</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.8099999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.58000034</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>13/01/22</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D17" t="n">
         <v>2.93</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="E17" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.9299997</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9300005099999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6800000399999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14/04/22</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Meal 1</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Meal 2</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Meal 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>WT-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Meal 1</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Meal 2</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Meal 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>WT-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.09</v>
+      <c r="E29" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +3248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,24 +3274,39 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Meal 1</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Meal 2</t>
+          <t>23:30-00:30</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meal 3</t>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1348,54 +3316,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13/01/22</t>
+          <t>15/10/20</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.54</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GHSR-Meal-Fed</t>
+          <t>WT-Meal-Fed</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28/01/21</t>
+          <t>12/02/20</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GHSR-Meal-Fed</t>
+          <t>WT-Meal-Fed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1404,142 +3390,792 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.31</v>
+        <v>1.02</v>
       </c>
       <c r="F4" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9999999499999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.02000006</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13/01/22</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.87999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.88999983</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.34000004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14/04/22</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07/07/22</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>06/08/20</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>06/08/20</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12/02/20</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>28/01/21</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.81999992</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.31999984</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.37999981</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>28/01/21</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9199998600000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.14000002</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.68999971</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>13/01/22</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D17" t="n">
         <v>2.63</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="E17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.63000005</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.89000067</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.21000023</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14/04/22</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>05/10/23</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>05/06/21</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Meal 1</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Meal 2</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Meal 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>WT-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="C24" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Meal 1</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Meal 2</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Meal 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>GHSR-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>WT-Meal-Fed</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>18:00-19:00_Total</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>23:30-00:30_Total</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>05:00-06:00_Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GHSR-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>WT-Meal-Fed</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
